--- a/202410/20241015_01_doc_002.xlsx
+++ b/202410/20241015_01_doc_002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digoal/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digoal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF6A3B63-7AE5-0044-B85D-8DB7BEE51DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC7C281-216E-AF48-A6B8-F0F924BAEB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16260" xr2:uid="{523FC1A0-ABEB-F348-959B-4BBD9C63CA53}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28520" windowHeight="19700" xr2:uid="{523FC1A0-ABEB-F348-959B-4BBD9C63CA53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,11 +221,6 @@
   <si>
     <t>当前值的repeated fields
 (不含被迫填充NULL的field)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么要填NULL?
-路径中其他上层field有值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,6 +337,10 @@
   <si>
     <t>Name(Url是被填充的,不含)
      而且Url也不是repeated field)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,21 +539,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -583,19 +573,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACABFBC-3406-234E-9B62-8743CC854679}">
-  <dimension ref="C2:I47"/>
+  <dimension ref="C1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -932,759 +919,751 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="17" thickBot="1"/>
-    <row r="3" spans="3:9" ht="34">
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="3:9" ht="17" thickBot="1"/>
+    <row r="2" spans="3:9" ht="34">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" ht="51">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17" thickBot="1">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" ht="51">
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="17" thickBot="1"/>
+    <row r="7" spans="3:9" ht="34">
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="51">
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="17" thickBot="1">
-      <c r="C6" s="11">
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="17" thickBot="1">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="17" thickBot="1"/>
-    <row r="9" spans="3:9" ht="34">
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="51">
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14">
-        <v>40</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14">
+    <row r="13" spans="3:9" ht="17" thickBot="1"/>
+    <row r="14" spans="3:9" ht="34">
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="51">
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="17" thickBot="1">
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="17" thickBot="1"/>
+    <row r="20" spans="3:9" ht="34">
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="51">
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="34">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="17" thickBot="1">
-      <c r="C14" s="11">
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="17" thickBot="1">
+      <c r="C25" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
-        <v>80</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="D25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="17" thickBot="1"/>
-    <row r="17" spans="3:9" ht="34">
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="51">
-      <c r="C18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="F25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="17" thickBot="1"/>
+    <row r="27" spans="3:9" ht="34">
+      <c r="C27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="51">
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="34">
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="I31" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="35" thickBot="1">
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="6">
+      <c r="F33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="17" thickBot="1"/>
+    <row r="35" spans="3:9" ht="34">
+      <c r="C35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="51">
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="34">
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="34">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="35" thickBot="1">
+      <c r="C41" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="14">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="17" thickBot="1">
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>30</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:9" ht="17" thickBot="1">
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="3:9" ht="34">
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="51">
-      <c r="C25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="34">
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="17" thickBot="1">
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="3:9" ht="17" thickBot="1"/>
-    <row r="32" spans="3:9" ht="34">
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="51">
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="34">
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="35" thickBot="1">
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="17" thickBot="1"/>
-    <row r="41" spans="3:9" ht="34">
-      <c r="C41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" ht="51">
-      <c r="C42" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" ht="34">
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="17" t="s">
+      <c r="F41" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" ht="34">
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="G41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="H41" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9">
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" ht="35" thickBot="1">
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I47" s="13" t="s">
+      <c r="I41" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
